--- a/TrainingData/MiscFiles/TimeSweep80Bar120C.xlsx
+++ b/TrainingData/MiscFiles/TimeSweep80Bar120C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himendra\Documents\Code\ConfocalImageAnalysis\CO2MachineLearning\TrainingData\MiscFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0049DDA0-1D10-45C8-876C-19391A109769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A593268-7A32-4FFB-AFA2-156FE5DAC6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
+    <workbookView xWindow="39840" yWindow="0" windowWidth="29010" windowHeight="15450" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
   </bookViews>
   <sheets>
     <sheet name="80-150" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8461008-E9A8-4CB1-AF0B-6338F0DA6B49}">
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290:XFD841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
         <v>600</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="2">B3/MAX(B:B)</f>
+        <f>B3/MAX(B:B)</f>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D3">
@@ -540,7 +540,7 @@
         <v>900</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
+        <f>B4/MAX(B:B)</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D4">
@@ -575,7 +575,7 @@
         <v>1200</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f>B5/MAX(B:B)</f>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D5">
@@ -610,7 +610,7 @@
         <v>1500</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f>B6/MAX(B:B)</f>
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D6">
@@ -645,7 +645,7 @@
         <v>1800</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f>B7/MAX(B:B)</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D7">
@@ -680,7 +680,7 @@
         <v>2100</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f>B8/MAX(B:B)</f>
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="D8">
@@ -715,7 +715,7 @@
         <v>2400</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f>B9/MAX(B:B)</f>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D9">
@@ -750,7 +750,7 @@
         <v>2700</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f>B10/MAX(B:B)</f>
         <v>3.125E-2</v>
       </c>
       <c r="D10">
@@ -785,7 +785,7 @@
         <v>3000</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f>B11/MAX(B:B)</f>
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="D11">
@@ -820,7 +820,7 @@
         <v>3300</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f>B12/MAX(B:B)</f>
         <v>3.8194444444444448E-2</v>
       </c>
       <c r="D12">
@@ -855,7 +855,7 @@
         <v>3600</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f>B13/MAX(B:B)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D13">
@@ -890,7 +890,7 @@
         <v>3900</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f>B14/MAX(B:B)</f>
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="D14">
@@ -925,7 +925,7 @@
         <v>4200</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f>B15/MAX(B:B)</f>
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="D15">
@@ -960,7 +960,7 @@
         <v>4500</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f>B16/MAX(B:B)</f>
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D16">
@@ -995,7 +995,7 @@
         <v>4800</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f>B17/MAX(B:B)</f>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D17">
@@ -1030,7 +1030,7 @@
         <v>5100</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f>B18/MAX(B:B)</f>
         <v>5.9027777777777776E-2</v>
       </c>
       <c r="D18">
@@ -1065,7 +1065,7 @@
         <v>5400</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f>B19/MAX(B:B)</f>
         <v>6.25E-2</v>
       </c>
       <c r="D19">
@@ -1100,7 +1100,7 @@
         <v>5700</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f>B20/MAX(B:B)</f>
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="D20">
@@ -1135,7 +1135,7 @@
         <v>6000</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f>B21/MAX(B:B)</f>
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="D21">
@@ -1170,7 +1170,7 @@
         <v>6300</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f>B22/MAX(B:B)</f>
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D22">
@@ -1205,7 +1205,7 @@
         <v>6600</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f>B23/MAX(B:B)</f>
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="D23">
@@ -1240,7 +1240,7 @@
         <v>6900</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f>B24/MAX(B:B)</f>
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="D24">
@@ -1275,7 +1275,7 @@
         <v>7200</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f>B25/MAX(B:B)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D25">
@@ -1310,7 +1310,7 @@
         <v>7500</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f>B26/MAX(B:B)</f>
         <v>8.6805555555555552E-2</v>
       </c>
       <c r="D26">
@@ -1345,7 +1345,7 @@
         <v>7800</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f>B27/MAX(B:B)</f>
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="D27">
@@ -1380,7 +1380,7 @@
         <v>8100</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f>B28/MAX(B:B)</f>
         <v>9.375E-2</v>
       </c>
       <c r="D28">
@@ -1415,7 +1415,7 @@
         <v>8400</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f>B29/MAX(B:B)</f>
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="D29">
@@ -1450,7 +1450,7 @@
         <v>8700</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f>B30/MAX(B:B)</f>
         <v>0.10069444444444445</v>
       </c>
       <c r="D30">
@@ -1485,7 +1485,7 @@
         <v>9000</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f>B31/MAX(B:B)</f>
         <v>0.10416666666666667</v>
       </c>
       <c r="D31">
@@ -1520,7 +1520,7 @@
         <v>9300</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f>B32/MAX(B:B)</f>
         <v>0.1076388888888889</v>
       </c>
       <c r="D32">
@@ -1555,7 +1555,7 @@
         <v>9600</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f>B33/MAX(B:B)</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D33">
@@ -1590,7 +1590,7 @@
         <v>9900</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f>B34/MAX(B:B)</f>
         <v>0.11458333333333333</v>
       </c>
       <c r="D34">
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J53" si="3">1*PI()*H34^4*D34/2/G34</f>
+        <f t="shared" ref="J34:J53" si="2">1*PI()*H34^4*D34/2/G34</f>
         <v>1.4077162521470503E-2</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
         <v>10200</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f>B35/MAX(B:B)</f>
         <v>0.11805555555555555</v>
       </c>
       <c r="D35">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3497852836148546E-2</v>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
         <v>10500</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f>B36/MAX(B:B)</f>
         <v>0.12152777777777778</v>
       </c>
       <c r="D36">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3208826312018284E-2</v>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
         <v>10800</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f>B37/MAX(B:B)</f>
         <v>0.125</v>
       </c>
       <c r="D37">
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2735074139856943E-2</v>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>11100</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f>B38/MAX(B:B)</f>
         <v>0.12847222222222221</v>
       </c>
       <c r="D38">
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2488930355448185E-2</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>11400</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f>B39/MAX(B:B)</f>
         <v>0.13194444444444445</v>
       </c>
       <c r="D39">
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2150580826656562E-2</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
         <v>11700</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f>B40/MAX(B:B)</f>
         <v>0.13541666666666666</v>
       </c>
       <c r="D40">
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1843018905870122E-2</v>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
         <v>12000</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f>B41/MAX(B:B)</f>
         <v>0.1388888888888889</v>
       </c>
       <c r="D41">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1550850789086272E-2</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
         <v>12300</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f>B42/MAX(B:B)</f>
         <v>0.1423611111111111</v>
       </c>
       <c r="D42">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1316802136393833E-2</v>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
         <v>12600</v>
       </c>
       <c r="C43">
-        <f t="shared" si="2"/>
+        <f>B43/MAX(B:B)</f>
         <v>0.14583333333333334</v>
       </c>
       <c r="D43">
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1032330921611277E-2</v>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
         <v>12900</v>
       </c>
       <c r="C44">
-        <f t="shared" si="2"/>
+        <f>B44/MAX(B:B)</f>
         <v>0.14930555555555555</v>
       </c>
       <c r="D44">
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0745346432705848E-2</v>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
         <v>13200</v>
       </c>
       <c r="C45">
-        <f t="shared" si="2"/>
+        <f>B45/MAX(B:B)</f>
         <v>0.15277777777777779</v>
       </c>
       <c r="D45">
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="J45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0462288934617408E-2</v>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
         <v>13500</v>
       </c>
       <c r="C46">
-        <f t="shared" si="2"/>
+        <f>B46/MAX(B:B)</f>
         <v>0.15625</v>
       </c>
       <c r="D46">
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="J46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0210961522330224E-2</v>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
         <v>13800</v>
       </c>
       <c r="C47">
-        <f t="shared" si="2"/>
+        <f>B47/MAX(B:B)</f>
         <v>0.15972222222222221</v>
       </c>
       <c r="D47">
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="J47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9574349951855289E-3</v>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>14100</v>
       </c>
       <c r="C48">
-        <f t="shared" si="2"/>
+        <f>B48/MAX(B:B)</f>
         <v>0.16319444444444445</v>
       </c>
       <c r="D48">
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="J48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.7122336885728435E-3</v>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
         <v>14400</v>
       </c>
       <c r="C49">
-        <f t="shared" si="2"/>
+        <f>B49/MAX(B:B)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D49">
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.4953067158424706E-3</v>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>14700</v>
       </c>
       <c r="C50">
-        <f t="shared" si="2"/>
+        <f>B50/MAX(B:B)</f>
         <v>0.1701388888888889</v>
       </c>
       <c r="D50">
@@ -2172,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.3545633649616475E-3</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
         <v>15000</v>
       </c>
       <c r="C51">
-        <f t="shared" si="2"/>
+        <f>B51/MAX(B:B)</f>
         <v>0.1736111111111111</v>
       </c>
       <c r="D51">
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.1671673631750165E-3</v>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
         <v>15300</v>
       </c>
       <c r="C52">
-        <f t="shared" si="2"/>
+        <f>B52/MAX(B:B)</f>
         <v>0.17708333333333334</v>
       </c>
       <c r="D52">
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.0471585238078873E-3</v>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
         <v>15600</v>
       </c>
       <c r="C53">
-        <f t="shared" si="2"/>
+        <f>B53/MAX(B:B)</f>
         <v>0.18055555555555555</v>
       </c>
       <c r="D53">
@@ -2277,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="J53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.8099682784618574E-3</v>
       </c>
     </row>
@@ -2286,11 +2286,11 @@
         <v>265</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:B117" si="4">A54*60</f>
+        <f t="shared" ref="B54:B117" si="3">A54*60</f>
         <v>15900</v>
       </c>
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f>B54/MAX(B:B)</f>
         <v>0.18402777777777779</v>
       </c>
       <c r="D54">
@@ -2312,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="J54">
-        <f t="shared" ref="J54:J117" si="5">1*PI()*H54^4*D54/2/G54</f>
+        <f t="shared" ref="J54:J117" si="4">1*PI()*H54^4*D54/2/G54</f>
         <v>8.6505324512921745E-3</v>
       </c>
     </row>
@@ -2321,11 +2321,11 @@
         <v>270</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16200</v>
       </c>
       <c r="C55">
-        <f t="shared" si="2"/>
+        <f>B55/MAX(B:B)</f>
         <v>0.1875</v>
       </c>
       <c r="D55">
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="J55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.461094414280711E-3</v>
       </c>
     </row>
@@ -2356,11 +2356,11 @@
         <v>275</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16500</v>
       </c>
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f>B56/MAX(B:B)</f>
         <v>0.19097222222222221</v>
       </c>
       <c r="D56">
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="J56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.2581475288588096E-3</v>
       </c>
     </row>
@@ -2391,11 +2391,11 @@
         <v>280</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16800</v>
       </c>
       <c r="C57">
-        <f t="shared" si="2"/>
+        <f>B57/MAX(B:B)</f>
         <v>0.19444444444444445</v>
       </c>
       <c r="D57">
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1087647981806163E-3</v>
       </c>
     </row>
@@ -2426,11 +2426,11 @@
         <v>285</v>
       </c>
       <c r="B58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17100</v>
       </c>
       <c r="C58">
-        <f t="shared" si="2"/>
+        <f>B58/MAX(B:B)</f>
         <v>0.19791666666666666</v>
       </c>
       <c r="D58">
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="J58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.9769749863625224E-3</v>
       </c>
     </row>
@@ -2461,11 +2461,11 @@
         <v>290</v>
       </c>
       <c r="B59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17400</v>
       </c>
       <c r="C59">
-        <f t="shared" si="2"/>
+        <f>B59/MAX(B:B)</f>
         <v>0.2013888888888889</v>
       </c>
       <c r="D59">
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="J59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.8258643797248541E-3</v>
       </c>
     </row>
@@ -2496,11 +2496,11 @@
         <v>295</v>
       </c>
       <c r="B60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17700</v>
       </c>
       <c r="C60">
-        <f t="shared" si="2"/>
+        <f>B60/MAX(B:B)</f>
         <v>0.2048611111111111</v>
       </c>
       <c r="D60">
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="J60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.6701984637394804E-3</v>
       </c>
     </row>
@@ -2531,11 +2531,11 @@
         <v>300</v>
       </c>
       <c r="B61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18000</v>
       </c>
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f>B61/MAX(B:B)</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="D61">
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="J61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.5036940530992203E-3</v>
       </c>
     </row>
@@ -2566,11 +2566,11 @@
         <v>305</v>
       </c>
       <c r="B62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18300</v>
       </c>
       <c r="C62">
-        <f t="shared" si="2"/>
+        <f>B62/MAX(B:B)</f>
         <v>0.21180555555555555</v>
       </c>
       <c r="D62">
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.3166122105779484E-3</v>
       </c>
     </row>
@@ -2601,11 +2601,11 @@
         <v>310</v>
       </c>
       <c r="B63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18600</v>
       </c>
       <c r="C63">
-        <f t="shared" si="2"/>
+        <f>B63/MAX(B:B)</f>
         <v>0.21527777777777779</v>
       </c>
       <c r="D63">
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="J63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.2096409807232168E-3</v>
       </c>
     </row>
@@ -2636,11 +2636,11 @@
         <v>315</v>
       </c>
       <c r="B64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18900</v>
       </c>
       <c r="C64">
-        <f t="shared" si="2"/>
+        <f>B64/MAX(B:B)</f>
         <v>0.21875</v>
       </c>
       <c r="D64">
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="J64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.0858622301717784E-3</v>
       </c>
     </row>
@@ -2671,11 +2671,11 @@
         <v>320</v>
       </c>
       <c r="B65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19200</v>
       </c>
       <c r="C65">
-        <f t="shared" si="2"/>
+        <f>B65/MAX(B:B)</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D65">
@@ -2697,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="J65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.9207715362256342E-3</v>
       </c>
     </row>
@@ -2706,11 +2706,11 @@
         <v>325</v>
       </c>
       <c r="B66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19500</v>
       </c>
       <c r="C66">
-        <f t="shared" si="2"/>
+        <f>B66/MAX(B:B)</f>
         <v>0.22569444444444445</v>
       </c>
       <c r="D66">
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="J66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.8059463247369277E-3</v>
       </c>
     </row>
@@ -2741,11 +2741,11 @@
         <v>330</v>
       </c>
       <c r="B67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19800</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="6">B67/MAX(B:B)</f>
+        <f>B67/MAX(B:B)</f>
         <v>0.22916666666666666</v>
       </c>
       <c r="D67">
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.7005458912089899E-3</v>
       </c>
     </row>
@@ -2776,11 +2776,11 @@
         <v>335</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20100</v>
       </c>
       <c r="C68">
-        <f t="shared" si="6"/>
+        <f>B68/MAX(B:B)</f>
         <v>0.2326388888888889</v>
       </c>
       <c r="D68">
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.6108534209490021E-3</v>
       </c>
     </row>
@@ -2811,11 +2811,11 @@
         <v>340</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20400</v>
       </c>
       <c r="C69">
-        <f t="shared" si="6"/>
+        <f>B69/MAX(B:B)</f>
         <v>0.2361111111111111</v>
       </c>
       <c r="D69">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.5122074116262816E-3</v>
       </c>
     </row>
@@ -2846,11 +2846,11 @@
         <v>345</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20700</v>
       </c>
       <c r="C70">
-        <f t="shared" si="6"/>
+        <f>B70/MAX(B:B)</f>
         <v>0.23958333333333334</v>
       </c>
       <c r="D70">
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.4082206947924589E-3</v>
       </c>
     </row>
@@ -2881,11 +2881,11 @@
         <v>350</v>
       </c>
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21000</v>
       </c>
       <c r="C71">
-        <f t="shared" si="6"/>
+        <f>B71/MAX(B:B)</f>
         <v>0.24305555555555555</v>
       </c>
       <c r="D71">
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.2908822091808812E-3</v>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
         <v>355</v>
       </c>
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21300</v>
       </c>
       <c r="C72">
-        <f t="shared" si="6"/>
+        <f>B72/MAX(B:B)</f>
         <v>0.24652777777777779</v>
       </c>
       <c r="D72">
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.1964773499405077E-3</v>
       </c>
     </row>
@@ -2951,11 +2951,11 @@
         <v>360</v>
       </c>
       <c r="B73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21600</v>
       </c>
       <c r="C73">
-        <f t="shared" si="6"/>
+        <f>B73/MAX(B:B)</f>
         <v>0.25</v>
       </c>
       <c r="D73">
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.0973601017197503E-3</v>
       </c>
     </row>
@@ -2986,11 +2986,11 @@
         <v>365</v>
       </c>
       <c r="B74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21900</v>
       </c>
       <c r="C74">
-        <f t="shared" si="6"/>
+        <f>B74/MAX(B:B)</f>
         <v>0.25347222222222221</v>
       </c>
       <c r="D74">
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.0183490464819668E-3</v>
       </c>
     </row>
@@ -3021,11 +3021,11 @@
         <v>370</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22200</v>
       </c>
       <c r="C75">
-        <f t="shared" si="6"/>
+        <f>B75/MAX(B:B)</f>
         <v>0.25694444444444442</v>
       </c>
       <c r="D75">
@@ -3047,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.9168756037710161E-3</v>
       </c>
     </row>
@@ -3056,11 +3056,11 @@
         <v>375</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22500</v>
       </c>
       <c r="C76">
-        <f t="shared" si="6"/>
+        <f>B76/MAX(B:B)</f>
         <v>0.26041666666666669</v>
       </c>
       <c r="D76">
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.8241986204901168E-3</v>
       </c>
     </row>
@@ -3091,11 +3091,11 @@
         <v>380</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22800</v>
       </c>
       <c r="C77">
-        <f t="shared" si="6"/>
+        <f>B77/MAX(B:B)</f>
         <v>0.2638888888888889</v>
       </c>
       <c r="D77">
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.7415747337007054E-3</v>
       </c>
     </row>
@@ -3126,11 +3126,11 @@
         <v>385</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23100</v>
       </c>
       <c r="C78">
-        <f t="shared" si="6"/>
+        <f>B78/MAX(B:B)</f>
         <v>0.2673611111111111</v>
       </c>
       <c r="D78">
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.6602074839727295E-3</v>
       </c>
     </row>
@@ -3161,11 +3161,11 @@
         <v>390</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23400</v>
       </c>
       <c r="C79">
-        <f t="shared" si="6"/>
+        <f>B79/MAX(B:B)</f>
         <v>0.27083333333333331</v>
       </c>
       <c r="D79">
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.5714574915088182E-3</v>
       </c>
     </row>
@@ -3196,11 +3196,11 @@
         <v>395</v>
       </c>
       <c r="B80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23700</v>
       </c>
       <c r="C80">
-        <f t="shared" si="6"/>
+        <f>B80/MAX(B:B)</f>
         <v>0.27430555555555558</v>
       </c>
       <c r="D80">
@@ -3222,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.4872628083926121E-3</v>
       </c>
     </row>
@@ -3231,11 +3231,11 @@
         <v>400</v>
       </c>
       <c r="B81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="C81">
-        <f t="shared" si="6"/>
+        <f>B81/MAX(B:B)</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="D81">
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.4261588312802906E-3</v>
       </c>
     </row>
@@ -3266,11 +3266,11 @@
         <v>405</v>
       </c>
       <c r="B82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24300</v>
       </c>
       <c r="C82">
-        <f t="shared" si="6"/>
+        <f>B82/MAX(B:B)</f>
         <v>0.28125</v>
       </c>
       <c r="D82">
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.378406622945725E-3</v>
       </c>
     </row>
@@ -3301,11 +3301,11 @@
         <v>410</v>
       </c>
       <c r="B83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24600</v>
       </c>
       <c r="C83">
-        <f t="shared" si="6"/>
+        <f>B83/MAX(B:B)</f>
         <v>0.28472222222222221</v>
       </c>
       <c r="D83">
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.311019460526225E-3</v>
       </c>
     </row>
@@ -3336,11 +3336,11 @@
         <v>415</v>
       </c>
       <c r="B84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24900</v>
       </c>
       <c r="C84">
-        <f t="shared" si="6"/>
+        <f>B84/MAX(B:B)</f>
         <v>0.28819444444444442</v>
       </c>
       <c r="D84">
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.2464597314949542E-3</v>
       </c>
     </row>
@@ -3371,11 +3371,11 @@
         <v>420</v>
       </c>
       <c r="B85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25200</v>
       </c>
       <c r="C85">
-        <f t="shared" si="6"/>
+        <f>B85/MAX(B:B)</f>
         <v>0.29166666666666669</v>
       </c>
       <c r="D85">
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.1676057558898503E-3</v>
       </c>
     </row>
@@ -3406,11 +3406,11 @@
         <v>425</v>
       </c>
       <c r="B86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25500</v>
       </c>
       <c r="C86">
-        <f t="shared" si="6"/>
+        <f>B86/MAX(B:B)</f>
         <v>0.2951388888888889</v>
       </c>
       <c r="D86">
@@ -3432,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.1277075291892597E-3</v>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>430</v>
       </c>
       <c r="B87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25800</v>
       </c>
       <c r="C87">
-        <f t="shared" si="6"/>
+        <f>B87/MAX(B:B)</f>
         <v>0.2986111111111111</v>
       </c>
       <c r="D87">
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.0807407190180927E-3</v>
       </c>
     </row>
@@ -3476,11 +3476,11 @@
         <v>435</v>
       </c>
       <c r="B88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26100</v>
       </c>
       <c r="C88">
-        <f t="shared" si="6"/>
+        <f>B88/MAX(B:B)</f>
         <v>0.30208333333333331</v>
       </c>
       <c r="D88">
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.0287473606011809E-3</v>
       </c>
     </row>
@@ -3511,11 +3511,11 @@
         <v>440</v>
       </c>
       <c r="B89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26400</v>
       </c>
       <c r="C89">
-        <f t="shared" si="6"/>
+        <f>B89/MAX(B:B)</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="D89">
@@ -3537,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.9710991354078096E-3</v>
       </c>
     </row>
@@ -3546,11 +3546,11 @@
         <v>445</v>
       </c>
       <c r="B90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26700</v>
       </c>
       <c r="C90">
-        <f t="shared" si="6"/>
+        <f>B90/MAX(B:B)</f>
         <v>0.30902777777777779</v>
       </c>
       <c r="D90">
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.9390548903411931E-3</v>
       </c>
     </row>
@@ -3581,11 +3581,11 @@
         <v>450</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
       <c r="C91">
-        <f t="shared" si="6"/>
+        <f>B91/MAX(B:B)</f>
         <v>0.3125</v>
       </c>
       <c r="D91">
@@ -3607,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.8909885227412693E-3</v>
       </c>
     </row>
@@ -3616,11 +3616,11 @@
         <v>455</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27300</v>
       </c>
       <c r="C92">
-        <f t="shared" si="6"/>
+        <f>B92/MAX(B:B)</f>
         <v>0.31597222222222221</v>
       </c>
       <c r="D92">
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.8715106482890118E-3</v>
       </c>
     </row>
@@ -3651,11 +3651,11 @@
         <v>460</v>
       </c>
       <c r="B93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27600</v>
       </c>
       <c r="C93">
-        <f t="shared" si="6"/>
+        <f>B93/MAX(B:B)</f>
         <v>0.31944444444444442</v>
       </c>
       <c r="D93">
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.8344398549766522E-3</v>
       </c>
     </row>
@@ -3686,11 +3686,11 @@
         <v>465</v>
       </c>
       <c r="B94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27900</v>
       </c>
       <c r="C94">
-        <f t="shared" si="6"/>
+        <f>B94/MAX(B:B)</f>
         <v>0.32291666666666669</v>
       </c>
       <c r="D94">
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.7780482668447165E-3</v>
       </c>
     </row>
@@ -3721,11 +3721,11 @@
         <v>470</v>
       </c>
       <c r="B95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28200</v>
       </c>
       <c r="C95">
-        <f t="shared" si="6"/>
+        <f>B95/MAX(B:B)</f>
         <v>0.3263888888888889</v>
       </c>
       <c r="D95">
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.7486743755336515E-3</v>
       </c>
     </row>
@@ -3756,11 +3756,11 @@
         <v>475</v>
       </c>
       <c r="B96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28500</v>
       </c>
       <c r="C96">
-        <f t="shared" si="6"/>
+        <f>B96/MAX(B:B)</f>
         <v>0.3298611111111111</v>
       </c>
       <c r="D96">
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.7084619895677027E-3</v>
       </c>
     </row>
@@ -3791,11 +3791,11 @@
         <v>480</v>
       </c>
       <c r="B97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28800</v>
       </c>
       <c r="C97">
-        <f t="shared" si="6"/>
+        <f>B97/MAX(B:B)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D97">
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.6385615530253289E-3</v>
       </c>
     </row>
@@ -3826,11 +3826,11 @@
         <v>485</v>
       </c>
       <c r="B98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29100</v>
       </c>
       <c r="C98">
-        <f t="shared" si="6"/>
+        <f>B98/MAX(B:B)</f>
         <v>0.33680555555555558</v>
       </c>
       <c r="D98">
@@ -3852,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5980350077940218E-3</v>
       </c>
     </row>
@@ -3861,11 +3861,11 @@
         <v>490</v>
       </c>
       <c r="B99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29400</v>
       </c>
       <c r="C99">
-        <f t="shared" si="6"/>
+        <f>B99/MAX(B:B)</f>
         <v>0.34027777777777779</v>
       </c>
       <c r="D99">
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5799708500358794E-3</v>
       </c>
     </row>
@@ -3896,11 +3896,11 @@
         <v>495</v>
       </c>
       <c r="B100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29700</v>
       </c>
       <c r="C100">
-        <f t="shared" si="6"/>
+        <f>B100/MAX(B:B)</f>
         <v>0.34375</v>
       </c>
       <c r="D100">
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5254642174960974E-3</v>
       </c>
     </row>
@@ -3931,11 +3931,11 @@
         <v>500</v>
       </c>
       <c r="B101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
       <c r="C101">
-        <f t="shared" si="6"/>
+        <f>B101/MAX(B:B)</f>
         <v>0.34722222222222221</v>
       </c>
       <c r="D101">
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.4761412128347363E-3</v>
       </c>
     </row>
@@ -3966,11 +3966,11 @@
         <v>505</v>
       </c>
       <c r="B102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30300</v>
       </c>
       <c r="C102">
-        <f t="shared" si="6"/>
+        <f>B102/MAX(B:B)</f>
         <v>0.35069444444444442</v>
       </c>
       <c r="D102">
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.4486522771158268E-3</v>
       </c>
     </row>
@@ -4001,11 +4001,11 @@
         <v>510</v>
       </c>
       <c r="B103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30600</v>
       </c>
       <c r="C103">
-        <f t="shared" si="6"/>
+        <f>B103/MAX(B:B)</f>
         <v>0.35416666666666669</v>
       </c>
       <c r="D103">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.3858204240440303E-3</v>
       </c>
     </row>
@@ -4036,11 +4036,11 @@
         <v>515</v>
       </c>
       <c r="B104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30900</v>
       </c>
       <c r="C104">
-        <f t="shared" si="6"/>
+        <f>B104/MAX(B:B)</f>
         <v>0.3576388888888889</v>
       </c>
       <c r="D104">
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.3558182142022488E-3</v>
       </c>
     </row>
@@ -4071,11 +4071,11 @@
         <v>520</v>
       </c>
       <c r="B105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31200</v>
       </c>
       <c r="C105">
-        <f t="shared" si="6"/>
+        <f>B105/MAX(B:B)</f>
         <v>0.3611111111111111</v>
       </c>
       <c r="D105">
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.3154487486036196E-3</v>
       </c>
     </row>
@@ -4106,11 +4106,11 @@
         <v>525</v>
       </c>
       <c r="B106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31500</v>
       </c>
       <c r="C106">
-        <f t="shared" si="6"/>
+        <f>B106/MAX(B:B)</f>
         <v>0.36458333333333331</v>
       </c>
       <c r="D106">
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.2582717623082843E-3</v>
       </c>
     </row>
@@ -4141,11 +4141,11 @@
         <v>530</v>
       </c>
       <c r="B107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31800</v>
       </c>
       <c r="C107">
-        <f t="shared" si="6"/>
+        <f>B107/MAX(B:B)</f>
         <v>0.36805555555555558</v>
       </c>
       <c r="D107">
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.2240284023841567E-3</v>
       </c>
     </row>
@@ -4176,11 +4176,11 @@
         <v>535</v>
       </c>
       <c r="B108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32100</v>
       </c>
       <c r="C108">
-        <f t="shared" si="6"/>
+        <f>B108/MAX(B:B)</f>
         <v>0.37152777777777779</v>
       </c>
       <c r="D108">
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="J108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1844443349489243E-3</v>
       </c>
     </row>
@@ -4211,11 +4211,11 @@
         <v>540</v>
       </c>
       <c r="B109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32400</v>
       </c>
       <c r="C109">
-        <f t="shared" si="6"/>
+        <f>B109/MAX(B:B)</f>
         <v>0.375</v>
       </c>
       <c r="D109">
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="J109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1384200025738338E-3</v>
       </c>
     </row>
@@ -4246,11 +4246,11 @@
         <v>545</v>
       </c>
       <c r="B110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32700</v>
       </c>
       <c r="C110">
-        <f t="shared" si="6"/>
+        <f>B110/MAX(B:B)</f>
         <v>0.37847222222222221</v>
       </c>
       <c r="D110">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="J110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1066899167725773E-3</v>
       </c>
     </row>
@@ -4281,11 +4281,11 @@
         <v>550</v>
       </c>
       <c r="B111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33000</v>
       </c>
       <c r="C111">
-        <f t="shared" si="6"/>
+        <f>B111/MAX(B:B)</f>
         <v>0.38194444444444442</v>
       </c>
       <c r="D111">
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.055167797253705E-3</v>
       </c>
     </row>
@@ -4316,11 +4316,11 @@
         <v>555</v>
       </c>
       <c r="B112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33300</v>
       </c>
       <c r="C112">
-        <f t="shared" si="6"/>
+        <f>B112/MAX(B:B)</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="D112">
@@ -4342,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.024694348513885E-3</v>
       </c>
     </row>
@@ -4351,11 +4351,11 @@
         <v>560</v>
       </c>
       <c r="B113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33600</v>
       </c>
       <c r="C113">
-        <f t="shared" si="6"/>
+        <f>B113/MAX(B:B)</f>
         <v>0.3888888888888889</v>
       </c>
       <c r="D113">
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="J113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.9891943515283192E-3</v>
       </c>
     </row>
@@ -4386,11 +4386,11 @@
         <v>565</v>
       </c>
       <c r="B114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33900</v>
       </c>
       <c r="C114">
-        <f t="shared" si="6"/>
+        <f>B114/MAX(B:B)</f>
         <v>0.3923611111111111</v>
       </c>
       <c r="D114">
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="J114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.9747430253218065E-3</v>
       </c>
     </row>
@@ -4421,11 +4421,11 @@
         <v>570</v>
       </c>
       <c r="B115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34200</v>
       </c>
       <c r="C115">
-        <f t="shared" si="6"/>
+        <f>B115/MAX(B:B)</f>
         <v>0.39583333333333331</v>
       </c>
       <c r="D115">
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="J115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.9645328491976391E-3</v>
       </c>
     </row>
@@ -4456,11 +4456,11 @@
         <v>575</v>
       </c>
       <c r="B116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34500</v>
       </c>
       <c r="C116">
-        <f t="shared" si="6"/>
+        <f>B116/MAX(B:B)</f>
         <v>0.39930555555555558</v>
       </c>
       <c r="D116">
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="J116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.9302894892735106E-3</v>
       </c>
     </row>
@@ -4491,11 +4491,11 @@
         <v>580</v>
       </c>
       <c r="B117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34800</v>
       </c>
       <c r="C117">
-        <f t="shared" si="6"/>
+        <f>B117/MAX(B:B)</f>
         <v>0.40277777777777779</v>
       </c>
       <c r="D117">
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="J117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.9178801982918303E-3</v>
       </c>
     </row>
@@ -4526,11 +4526,11 @@
         <v>585</v>
       </c>
       <c r="B118">
-        <f t="shared" ref="B118:B181" si="7">A118*60</f>
+        <f t="shared" ref="B118:B181" si="5">A118*60</f>
         <v>35100</v>
       </c>
       <c r="C118">
-        <f t="shared" si="6"/>
+        <f>B118/MAX(B:B)</f>
         <v>0.40625</v>
       </c>
       <c r="D118">
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="J118">
-        <f t="shared" ref="J118:J181" si="8">1*PI()*H118^4*D118/2/G118</f>
+        <f t="shared" ref="J118:J181" si="6">1*PI()*H118^4*D118/2/G118</f>
         <v>3.8864642717559325E-3</v>
       </c>
     </row>
@@ -4561,11 +4561,11 @@
         <v>590</v>
       </c>
       <c r="B119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>35400</v>
       </c>
       <c r="C119">
-        <f t="shared" si="6"/>
+        <f>B119/MAX(B:B)</f>
         <v>0.40972222222222221</v>
       </c>
       <c r="D119">
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="J119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.8762540956317659E-3</v>
       </c>
     </row>
@@ -4596,11 +4596,11 @@
         <v>595</v>
       </c>
       <c r="B120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>35700</v>
       </c>
       <c r="C120">
-        <f t="shared" si="6"/>
+        <f>B120/MAX(B:B)</f>
         <v>0.41319444444444442</v>
       </c>
       <c r="D120">
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="J120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.8718558659167407E-3</v>
       </c>
     </row>
@@ -4631,11 +4631,11 @@
         <v>600</v>
       </c>
       <c r="B121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>36000</v>
       </c>
       <c r="C121">
-        <f t="shared" si="6"/>
+        <f>B121/MAX(B:B)</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="D121">
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="J121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.85363462852592E-3</v>
       </c>
     </row>
@@ -4666,11 +4666,11 @@
         <v>605</v>
       </c>
       <c r="B122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>36300</v>
       </c>
       <c r="C122">
-        <f t="shared" si="6"/>
+        <f>B122/MAX(B:B)</f>
         <v>0.4201388888888889</v>
       </c>
       <c r="D122">
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="J122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.8187629500710729E-3</v>
       </c>
     </row>
@@ -4701,11 +4701,11 @@
         <v>610</v>
       </c>
       <c r="B123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>36600</v>
       </c>
       <c r="C123">
-        <f t="shared" si="6"/>
+        <f>B123/MAX(B:B)</f>
         <v>0.4236111111111111</v>
       </c>
       <c r="D123">
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="J123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.784676669779624E-3</v>
       </c>
     </row>
@@ -4736,11 +4736,11 @@
         <v>615</v>
       </c>
       <c r="B124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>36900</v>
       </c>
       <c r="C124">
-        <f t="shared" si="6"/>
+        <f>B124/MAX(B:B)</f>
         <v>0.42708333333333331</v>
       </c>
       <c r="D124">
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="J124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.7557740173665977E-3</v>
       </c>
     </row>
@@ -4771,11 +4771,11 @@
         <v>620</v>
       </c>
       <c r="B125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37200</v>
       </c>
       <c r="C125">
-        <f t="shared" si="6"/>
+        <f>B125/MAX(B:B)</f>
         <v>0.43055555555555558</v>
       </c>
       <c r="D125">
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="J125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.7430505671195587E-3</v>
       </c>
     </row>
@@ -4806,11 +4806,11 @@
         <v>625</v>
       </c>
       <c r="B126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37500</v>
       </c>
       <c r="C126">
-        <f t="shared" si="6"/>
+        <f>B126/MAX(B:B)</f>
         <v>0.43402777777777779</v>
       </c>
       <c r="D126">
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="J126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.7133625165431355E-3</v>
       </c>
     </row>
@@ -4841,11 +4841,11 @@
         <v>630</v>
       </c>
       <c r="B127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>37800</v>
       </c>
       <c r="C127">
-        <f t="shared" si="6"/>
+        <f>B127/MAX(B:B)</f>
         <v>0.4375</v>
       </c>
       <c r="D127">
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="J127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.6799045547824044E-3</v>
       </c>
     </row>
@@ -4876,11 +4876,11 @@
         <v>635</v>
       </c>
       <c r="B128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38100</v>
       </c>
       <c r="C128">
-        <f t="shared" si="6"/>
+        <f>B128/MAX(B:B)</f>
         <v>0.44097222222222221</v>
       </c>
       <c r="D128">
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="J128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.6712651749850325E-3</v>
       </c>
     </row>
@@ -4911,11 +4911,11 @@
         <v>640</v>
       </c>
       <c r="B129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38400</v>
       </c>
       <c r="C129">
-        <f t="shared" si="6"/>
+        <f>B129/MAX(B:B)</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="D129">
@@ -4937,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="J129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.6580704858399549E-3</v>
       </c>
     </row>
@@ -4946,11 +4946,11 @@
         <v>645</v>
       </c>
       <c r="B130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38700</v>
       </c>
       <c r="C130">
-        <f t="shared" si="6"/>
+        <f>B130/MAX(B:B)</f>
         <v>0.44791666666666669</v>
       </c>
       <c r="D130">
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="J130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.6376501335916218E-3</v>
       </c>
     </row>
@@ -4981,11 +4981,11 @@
         <v>650</v>
       </c>
       <c r="B131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>39000</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" si="9">B131/MAX(B:B)</f>
+        <f>B131/MAX(B:B)</f>
         <v>0.4513888888888889</v>
       </c>
       <c r="D131">
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="J131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.610004118240031E-3</v>
       </c>
     </row>
@@ -5016,11 +5016,11 @@
         <v>655</v>
       </c>
       <c r="B132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>39300</v>
       </c>
       <c r="C132">
-        <f t="shared" si="9"/>
+        <f>B132/MAX(B:B)</f>
         <v>0.4548611111111111</v>
       </c>
       <c r="D132">
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="J132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.5861280140727491E-3</v>
       </c>
     </row>
@@ -5051,11 +5051,11 @@
         <v>660</v>
       </c>
       <c r="B133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>39600</v>
       </c>
       <c r="C133">
-        <f t="shared" si="9"/>
+        <f>B133/MAX(B:B)</f>
         <v>0.45833333333333331</v>
       </c>
       <c r="D133">
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="J133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.5638227062322609E-3</v>
       </c>
     </row>
@@ -5086,11 +5086,11 @@
         <v>665</v>
       </c>
       <c r="B134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>39900</v>
       </c>
       <c r="C134">
-        <f t="shared" si="9"/>
+        <f>B134/MAX(B:B)</f>
         <v>0.46180555555555558</v>
       </c>
       <c r="D134">
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="J134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.5457585484741198E-3</v>
       </c>
     </row>
@@ -5121,11 +5121,11 @@
         <v>670</v>
       </c>
       <c r="B135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>40200</v>
       </c>
       <c r="C135">
-        <f t="shared" si="9"/>
+        <f>B135/MAX(B:B)</f>
         <v>0.46527777777777779</v>
       </c>
       <c r="D135">
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="J135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.5353912927172737E-3</v>
       </c>
     </row>
@@ -5156,11 +5156,11 @@
         <v>675</v>
       </c>
       <c r="B136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>40500</v>
       </c>
       <c r="C136">
-        <f t="shared" si="9"/>
+        <f>B136/MAX(B:B)</f>
         <v>0.46875</v>
       </c>
       <c r="D136">
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="J136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.5430881947185688E-3</v>
       </c>
     </row>
@@ -5191,11 +5191,11 @@
         <v>680</v>
       </c>
       <c r="B137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>40800</v>
       </c>
       <c r="C137">
-        <f t="shared" si="9"/>
+        <f>B137/MAX(B:B)</f>
         <v>0.47222222222222221</v>
       </c>
       <c r="D137">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="J137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.5221966035721961E-3</v>
       </c>
     </row>
@@ -5226,11 +5226,11 @@
         <v>685</v>
       </c>
       <c r="B138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>41100</v>
       </c>
       <c r="C138">
-        <f t="shared" si="9"/>
+        <f>B138/MAX(B:B)</f>
         <v>0.47569444444444442</v>
       </c>
       <c r="D138">
@@ -5252,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="J138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.5069598792022857E-3</v>
       </c>
     </row>
@@ -5261,11 +5261,11 @@
         <v>690</v>
       </c>
       <c r="B139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>41400</v>
       </c>
       <c r="C139">
-        <f t="shared" si="9"/>
+        <f>B139/MAX(B:B)</f>
         <v>0.47916666666666669</v>
       </c>
       <c r="D139">
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="J139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.5179554534898504E-3</v>
       </c>
     </row>
@@ -5296,11 +5296,11 @@
         <v>695</v>
       </c>
       <c r="B140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>41700</v>
       </c>
       <c r="C140">
-        <f t="shared" si="9"/>
+        <f>B140/MAX(B:B)</f>
         <v>0.4826388888888889</v>
       </c>
       <c r="D140">
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="J140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.555340406067569E-3</v>
       </c>
     </row>
@@ -5331,11 +5331,11 @@
         <v>700</v>
       </c>
       <c r="B141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>42000</v>
       </c>
       <c r="C141">
-        <f t="shared" si="9"/>
+        <f>B141/MAX(B:B)</f>
         <v>0.4861111111111111</v>
       </c>
       <c r="D141">
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.5071169588349656E-3</v>
       </c>
     </row>
@@ -5366,11 +5366,11 @@
         <v>705</v>
       </c>
       <c r="B142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>42300</v>
       </c>
       <c r="C142">
-        <f t="shared" si="9"/>
+        <f>B142/MAX(B:B)</f>
         <v>0.48958333333333331</v>
       </c>
       <c r="D142">
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="J142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.4818271379735677E-3</v>
       </c>
     </row>
@@ -5401,11 +5401,11 @@
         <v>710</v>
       </c>
       <c r="B143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>42600</v>
       </c>
       <c r="C143">
-        <f t="shared" si="9"/>
+        <f>B143/MAX(B:B)</f>
         <v>0.49305555555555558</v>
       </c>
       <c r="D143">
@@ -5427,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="J143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.4841833324637597E-3</v>
       </c>
     </row>
@@ -5436,11 +5436,11 @@
         <v>715</v>
       </c>
       <c r="B144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>42900</v>
       </c>
       <c r="C144">
-        <f t="shared" si="9"/>
+        <f>B144/MAX(B:B)</f>
         <v>0.49652777777777779</v>
       </c>
       <c r="D144">
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="J144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.4551236004180547E-3</v>
       </c>
     </row>
@@ -5471,11 +5471,11 @@
         <v>720</v>
       </c>
       <c r="B145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>43200</v>
       </c>
       <c r="C145">
-        <f t="shared" si="9"/>
+        <f>B145/MAX(B:B)</f>
         <v>0.5</v>
       </c>
       <c r="D145">
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="J145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.4290483813932595E-3</v>
       </c>
     </row>
@@ -5506,11 +5506,11 @@
         <v>725</v>
       </c>
       <c r="B146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>43500</v>
       </c>
       <c r="C146">
-        <f t="shared" si="9"/>
+        <f>B146/MAX(B:B)</f>
         <v>0.50347222222222221</v>
       </c>
       <c r="D146">
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="J146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.4031302420011434E-3</v>
       </c>
     </row>
@@ -5541,11 +5541,11 @@
         <v>730</v>
       </c>
       <c r="B147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>43800</v>
       </c>
       <c r="C147">
-        <f t="shared" si="9"/>
+        <f>B147/MAX(B:B)</f>
         <v>0.50694444444444442</v>
       </c>
       <c r="D147">
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="J147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.3924488269789382E-3</v>
       </c>
     </row>
@@ -5576,11 +5576,11 @@
         <v>735</v>
       </c>
       <c r="B148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44100</v>
       </c>
       <c r="C148">
-        <f t="shared" si="9"/>
+        <f>B148/MAX(B:B)</f>
         <v>0.51041666666666663</v>
       </c>
       <c r="D148">
@@ -5602,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.3654311301580656E-3</v>
       </c>
     </row>
@@ -5611,11 +5611,11 @@
         <v>740</v>
       </c>
       <c r="B149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44400</v>
       </c>
       <c r="C149">
-        <f t="shared" si="9"/>
+        <f>B149/MAX(B:B)</f>
         <v>0.51388888888888884</v>
       </c>
       <c r="D149">
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="J149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.3503514854208347E-3</v>
       </c>
     </row>
@@ -5646,11 +5646,11 @@
         <v>745</v>
       </c>
       <c r="B150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44700</v>
       </c>
       <c r="C150">
-        <f t="shared" si="9"/>
+        <f>B150/MAX(B:B)</f>
         <v>0.51736111111111116</v>
       </c>
       <c r="D150">
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="J150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.3371567962757575E-3</v>
       </c>
     </row>
@@ -5681,11 +5681,11 @@
         <v>750</v>
       </c>
       <c r="B151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45000</v>
       </c>
       <c r="C151">
-        <f t="shared" si="9"/>
+        <f>B151/MAX(B:B)</f>
         <v>0.52083333333333337</v>
       </c>
       <c r="D151">
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.326789540518911E-3</v>
       </c>
     </row>
@@ -5716,11 +5716,11 @@
         <v>755</v>
       </c>
       <c r="B152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45300</v>
       </c>
       <c r="C152">
-        <f t="shared" si="9"/>
+        <f>B152/MAX(B:B)</f>
         <v>0.52430555555555558</v>
       </c>
       <c r="D152">
@@ -5742,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="J152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.3134377717411547E-3</v>
       </c>
     </row>
@@ -5751,11 +5751,11 @@
         <v>760</v>
       </c>
       <c r="B153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45600</v>
       </c>
       <c r="C153">
-        <f t="shared" si="9"/>
+        <f>B153/MAX(B:B)</f>
         <v>0.52777777777777779</v>
       </c>
       <c r="D153">
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="J153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.3170506032927827E-3</v>
       </c>
     </row>
@@ -5786,11 +5786,11 @@
         <v>765</v>
       </c>
       <c r="B154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45900</v>
       </c>
       <c r="C154">
-        <f t="shared" si="9"/>
+        <f>B154/MAX(B:B)</f>
         <v>0.53125</v>
       </c>
       <c r="D154">
@@ -5812,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="J154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.3060550290052188E-3</v>
       </c>
     </row>
@@ -5821,11 +5821,11 @@
         <v>770</v>
       </c>
       <c r="B155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>46200</v>
       </c>
       <c r="C155">
-        <f t="shared" si="9"/>
+        <f>B155/MAX(B:B)</f>
         <v>0.53472222222222221</v>
       </c>
       <c r="D155">
@@ -5847,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="J155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.2986722862692825E-3</v>
       </c>
     </row>
@@ -5856,11 +5856,11 @@
         <v>775</v>
       </c>
       <c r="B156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>46500</v>
       </c>
       <c r="C156">
-        <f t="shared" si="9"/>
+        <f>B156/MAX(B:B)</f>
         <v>0.53819444444444442</v>
       </c>
       <c r="D156">
@@ -5882,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="J156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.2813935266745391E-3</v>
       </c>
     </row>
@@ -5891,11 +5891,11 @@
         <v>780</v>
       </c>
       <c r="B157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>46800</v>
       </c>
       <c r="C157">
-        <f t="shared" si="9"/>
+        <f>B157/MAX(B:B)</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="D157">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="J157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.2669422004680255E-3</v>
       </c>
     </row>
@@ -5926,11 +5926,11 @@
         <v>785</v>
       </c>
       <c r="B158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>47100</v>
       </c>
       <c r="C158">
-        <f t="shared" si="9"/>
+        <f>B158/MAX(B:B)</f>
         <v>0.54513888888888884</v>
       </c>
       <c r="D158">
@@ -5952,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="J158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.250291759404E-3</v>
       </c>
     </row>
@@ -5961,11 +5961,11 @@
         <v>790</v>
       </c>
       <c r="B159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>47400</v>
       </c>
       <c r="C159">
-        <f t="shared" si="9"/>
+        <f>B159/MAX(B:B)</f>
         <v>0.54861111111111116</v>
       </c>
       <c r="D159">
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="J159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.22861477009423E-3</v>
       </c>
     </row>
@@ -5996,11 +5996,11 @@
         <v>795</v>
       </c>
       <c r="B160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>47700</v>
       </c>
       <c r="C160">
-        <f t="shared" si="9"/>
+        <f>B160/MAX(B:B)</f>
         <v>0.55208333333333337</v>
       </c>
       <c r="D160">
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="J160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.2129068068262813E-3</v>
       </c>
     </row>
@@ -6031,11 +6031,11 @@
         <v>800</v>
       </c>
       <c r="B161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48000</v>
       </c>
       <c r="C161">
-        <f t="shared" si="9"/>
+        <f>B161/MAX(B:B)</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="D161">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.2088227363766147E-3</v>
       </c>
     </row>
@@ -6066,11 +6066,11 @@
         <v>805</v>
       </c>
       <c r="B162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48300</v>
       </c>
       <c r="C162">
-        <f t="shared" si="9"/>
+        <f>B162/MAX(B:B)</f>
         <v>0.55902777777777779</v>
       </c>
       <c r="D162">
@@ -6092,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="J162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1939001712720633E-3</v>
       </c>
     </row>
@@ -6101,11 +6101,11 @@
         <v>810</v>
       </c>
       <c r="B163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48600</v>
       </c>
       <c r="C163">
-        <f t="shared" si="9"/>
+        <f>B163/MAX(B:B)</f>
         <v>0.5625</v>
       </c>
       <c r="D163">
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="J163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.2210749477256146E-3</v>
       </c>
     </row>
@@ -6136,11 +6136,11 @@
         <v>815</v>
       </c>
       <c r="B164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>48900</v>
       </c>
       <c r="C164">
-        <f t="shared" si="9"/>
+        <f>B164/MAX(B:B)</f>
         <v>0.56597222222222221</v>
       </c>
       <c r="D164">
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="J164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1990837991504859E-3</v>
       </c>
     </row>
@@ -6171,11 +6171,11 @@
         <v>820</v>
       </c>
       <c r="B165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>49200</v>
       </c>
       <c r="C165">
-        <f t="shared" si="9"/>
+        <f>B165/MAX(B:B)</f>
         <v>0.56944444444444442</v>
       </c>
       <c r="D165">
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="J165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1873028266995243E-3</v>
       </c>
     </row>
@@ -6206,11 +6206,11 @@
         <v>825</v>
       </c>
       <c r="B166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>49500</v>
       </c>
       <c r="C166">
-        <f t="shared" si="9"/>
+        <f>B166/MAX(B:B)</f>
         <v>0.57291666666666663</v>
       </c>
       <c r="D166">
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1799200839635884E-3</v>
       </c>
     </row>
@@ -6241,11 +6241,11 @@
         <v>830</v>
       </c>
       <c r="B167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>49800</v>
       </c>
       <c r="C167">
-        <f t="shared" si="9"/>
+        <f>B167/MAX(B:B)</f>
         <v>0.57638888888888884</v>
       </c>
       <c r="D167">
@@ -6267,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="J167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1814908802903835E-3</v>
       </c>
     </row>
@@ -6276,11 +6276,11 @@
         <v>835</v>
       </c>
       <c r="B168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50100</v>
       </c>
       <c r="C168">
-        <f t="shared" si="9"/>
+        <f>B168/MAX(B:B)</f>
         <v>0.57986111111111116</v>
       </c>
       <c r="D168">
@@ -6302,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1940572509047429E-3</v>
       </c>
     </row>
@@ -6311,11 +6311,11 @@
         <v>840</v>
       </c>
       <c r="B169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50400</v>
       </c>
       <c r="C169">
-        <f t="shared" si="9"/>
+        <f>B169/MAX(B:B)</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="D169">
@@ -6337,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="J169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1587143335518571E-3</v>
       </c>
     </row>
@@ -6346,11 +6346,11 @@
         <v>845</v>
       </c>
       <c r="B170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50700</v>
       </c>
       <c r="C170">
-        <f t="shared" si="9"/>
+        <f>B170/MAX(B:B)</f>
         <v>0.58680555555555558</v>
       </c>
       <c r="D170">
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1511745111832421E-3</v>
       </c>
     </row>
@@ -6381,11 +6381,11 @@
         <v>850</v>
       </c>
       <c r="B171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>51000</v>
       </c>
       <c r="C171">
-        <f t="shared" si="9"/>
+        <f>B171/MAX(B:B)</f>
         <v>0.59027777777777779</v>
       </c>
       <c r="D171">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="J171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1134753993401648E-3</v>
       </c>
     </row>
@@ -6416,11 +6416,11 @@
         <v>855</v>
       </c>
       <c r="B172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>51300</v>
       </c>
       <c r="C172">
-        <f t="shared" si="9"/>
+        <f>B172/MAX(B:B)</f>
         <v>0.59375</v>
       </c>
       <c r="D172">
@@ -6442,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1133183197074848E-3</v>
       </c>
     </row>
@@ -6451,11 +6451,11 @@
         <v>860</v>
       </c>
       <c r="B173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>51600</v>
       </c>
       <c r="C173">
-        <f t="shared" si="9"/>
+        <f>B173/MAX(B:B)</f>
         <v>0.59722222222222221</v>
       </c>
       <c r="D173">
@@ -6477,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1034223028486769E-3</v>
       </c>
     </row>
@@ -6486,11 +6486,11 @@
         <v>865</v>
       </c>
       <c r="B174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>51900</v>
       </c>
       <c r="C174">
-        <f t="shared" si="9"/>
+        <f>B174/MAX(B:B)</f>
         <v>0.60069444444444442</v>
       </c>
       <c r="D174">
@@ -6512,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0888138970094846E-3</v>
       </c>
     </row>
@@ -6521,11 +6521,11 @@
         <v>870</v>
       </c>
       <c r="B175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52200</v>
       </c>
       <c r="C175">
-        <f t="shared" si="9"/>
+        <f>B175/MAX(B:B)</f>
         <v>0.60416666666666663</v>
       </c>
       <c r="D175">
@@ -6547,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.113946638238203E-3</v>
       </c>
     </row>
@@ -6556,11 +6556,11 @@
         <v>875</v>
       </c>
       <c r="B176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52500</v>
       </c>
       <c r="C176">
-        <f t="shared" si="9"/>
+        <f>B176/MAX(B:B)</f>
         <v>0.60763888888888884</v>
       </c>
       <c r="D176">
@@ -6582,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0884997377441255E-3</v>
       </c>
     </row>
@@ -6591,11 +6591,11 @@
         <v>880</v>
       </c>
       <c r="B177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52800</v>
       </c>
       <c r="C177">
-        <f t="shared" si="9"/>
+        <f>B177/MAX(B:B)</f>
         <v>0.61111111111111116</v>
       </c>
       <c r="D177">
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0994953120316898E-3</v>
       </c>
     </row>
@@ -6626,11 +6626,11 @@
         <v>885</v>
       </c>
       <c r="B178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>53100</v>
       </c>
       <c r="C178">
-        <f t="shared" si="9"/>
+        <f>B178/MAX(B:B)</f>
         <v>0.61458333333333337</v>
       </c>
       <c r="D178">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="J178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0698072614552662E-3</v>
       </c>
     </row>
@@ -6661,11 +6661,11 @@
         <v>890</v>
       </c>
       <c r="B179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>53400</v>
       </c>
       <c r="C179">
-        <f t="shared" si="9"/>
+        <f>B179/MAX(B:B)</f>
         <v>0.61805555555555558</v>
       </c>
       <c r="D179">
@@ -6687,7 +6687,7 @@
         <v>1</v>
       </c>
       <c r="J179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0646236335768427E-3</v>
       </c>
     </row>
@@ -6696,11 +6696,11 @@
         <v>895</v>
       </c>
       <c r="B180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>53700</v>
       </c>
       <c r="C180">
-        <f t="shared" si="9"/>
+        <f>B180/MAX(B:B)</f>
         <v>0.62152777777777779</v>
       </c>
       <c r="D180">
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="J180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0613249612905739E-3</v>
       </c>
     </row>
@@ -6731,11 +6731,11 @@
         <v>900</v>
       </c>
       <c r="B181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54000</v>
       </c>
       <c r="C181">
-        <f t="shared" si="9"/>
+        <f>B181/MAX(B:B)</f>
         <v>0.625</v>
       </c>
       <c r="D181">
@@ -6757,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="J181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0544134574526762E-3</v>
       </c>
     </row>
@@ -6766,11 +6766,11 @@
         <v>905</v>
       </c>
       <c r="B182">
-        <f t="shared" ref="B182:B245" si="10">A182*60</f>
+        <f t="shared" ref="B182:B245" si="7">A182*60</f>
         <v>54300</v>
       </c>
       <c r="C182">
-        <f t="shared" si="9"/>
+        <f>B182/MAX(B:B)</f>
         <v>0.62847222222222221</v>
       </c>
       <c r="D182">
@@ -6792,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="J182">
-        <f t="shared" ref="J182:J245" si="11">1*PI()*H182^4*D182/2/G182</f>
+        <f t="shared" ref="J182:J245" si="8">1*PI()*H182^4*D182/2/G182</f>
         <v>3.0487585906762145E-3</v>
       </c>
     </row>
@@ -6801,11 +6801,11 @@
         <v>910</v>
       </c>
       <c r="B183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>54600</v>
       </c>
       <c r="C183">
-        <f t="shared" si="9"/>
+        <f>B183/MAX(B:B)</f>
         <v>0.63194444444444442</v>
       </c>
       <c r="D183">
@@ -6827,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="J183">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0344643441023809E-3</v>
       </c>
     </row>
@@ -6836,11 +6836,11 @@
         <v>915</v>
       </c>
       <c r="B184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>54900</v>
       </c>
       <c r="C184">
-        <f t="shared" si="9"/>
+        <f>B184/MAX(B:B)</f>
         <v>0.63541666666666663</v>
       </c>
       <c r="D184">
@@ -6862,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="J184">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0162431067115606E-3</v>
       </c>
     </row>
@@ -6871,11 +6871,11 @@
         <v>920</v>
       </c>
       <c r="B185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>55200</v>
       </c>
       <c r="C185">
-        <f t="shared" si="9"/>
+        <f>B185/MAX(B:B)</f>
         <v>0.63888888888888884</v>
       </c>
       <c r="D185">
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="J185">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0190705400997908E-3</v>
       </c>
     </row>
@@ -6906,11 +6906,11 @@
         <v>925</v>
       </c>
       <c r="B186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>55500</v>
       </c>
       <c r="C186">
-        <f t="shared" si="9"/>
+        <f>B186/MAX(B:B)</f>
         <v>0.64236111111111116</v>
       </c>
       <c r="D186">
@@ -6932,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="J186">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0168714252422784E-3</v>
       </c>
     </row>
@@ -6941,11 +6941,11 @@
         <v>930</v>
       </c>
       <c r="B187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>55800</v>
       </c>
       <c r="C187">
-        <f t="shared" si="9"/>
+        <f>B187/MAX(B:B)</f>
         <v>0.64583333333333337</v>
       </c>
       <c r="D187">
@@ -6967,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="J187">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0107453195677781E-3</v>
       </c>
     </row>
@@ -6976,11 +6976,11 @@
         <v>935</v>
       </c>
       <c r="B188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>56100</v>
       </c>
       <c r="C188">
-        <f t="shared" si="9"/>
+        <f>B188/MAX(B:B)</f>
         <v>0.64930555555555558</v>
       </c>
       <c r="D188">
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="J188">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.033521866306304E-3</v>
       </c>
     </row>
@@ -7011,11 +7011,11 @@
         <v>940</v>
       </c>
       <c r="B189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>56400</v>
       </c>
       <c r="C189">
-        <f t="shared" si="9"/>
+        <f>B189/MAX(B:B)</f>
         <v>0.65277777777777779</v>
       </c>
       <c r="D189">
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="J189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0101170010370603E-3</v>
       </c>
     </row>
@@ -7046,11 +7046,11 @@
         <v>945</v>
       </c>
       <c r="B190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>56700</v>
       </c>
       <c r="C190">
-        <f t="shared" si="9"/>
+        <f>B190/MAX(B:B)</f>
         <v>0.65625</v>
       </c>
       <c r="D190">
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="J190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0006922230762906E-3</v>
       </c>
     </row>
@@ -7081,11 +7081,11 @@
         <v>950</v>
       </c>
       <c r="B191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>57000</v>
       </c>
       <c r="C191">
-        <f t="shared" si="9"/>
+        <f>B191/MAX(B:B)</f>
         <v>0.65972222222222221</v>
       </c>
       <c r="D191">
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="J191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9995926656475346E-3</v>
       </c>
     </row>
@@ -7116,11 +7116,11 @@
         <v>955</v>
       </c>
       <c r="B192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>57300</v>
       </c>
       <c r="C192">
-        <f t="shared" si="9"/>
+        <f>B192/MAX(B:B)</f>
         <v>0.66319444444444442</v>
       </c>
       <c r="D192">
@@ -7142,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="J192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9829422245835082E-3</v>
       </c>
     </row>
@@ -7151,11 +7151,11 @@
         <v>960</v>
       </c>
       <c r="B193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>57600</v>
       </c>
       <c r="C193">
-        <f t="shared" si="9"/>
+        <f>B193/MAX(B:B)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D193">
@@ -7177,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="J193">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9633072704985724E-3</v>
       </c>
     </row>
@@ -7186,11 +7186,11 @@
         <v>965</v>
       </c>
       <c r="B194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>57900</v>
       </c>
       <c r="C194">
-        <f t="shared" si="9"/>
+        <f>B194/MAX(B:B)</f>
         <v>0.67013888888888884</v>
       </c>
       <c r="D194">
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="J194">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.950897979516893E-3</v>
       </c>
     </row>
@@ -7221,11 +7221,11 @@
         <v>970</v>
       </c>
       <c r="B195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>58200</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C258" si="12">B195/MAX(B:B)</f>
+        <f>B195/MAX(B:B)</f>
         <v>0.67361111111111116</v>
       </c>
       <c r="D195">
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="J195">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.934247538452867E-3</v>
       </c>
     </row>
@@ -7256,11 +7256,11 @@
         <v>975</v>
       </c>
       <c r="B196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>58500</v>
       </c>
       <c r="C196">
-        <f t="shared" si="12"/>
+        <f>B196/MAX(B:B)</f>
         <v>0.67708333333333337</v>
       </c>
       <c r="D196">
@@ -7282,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="J196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9364466533103794E-3</v>
       </c>
     </row>
@@ -7291,11 +7291,11 @@
         <v>980</v>
       </c>
       <c r="B197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>58800</v>
       </c>
       <c r="C197">
-        <f t="shared" si="12"/>
+        <f>B197/MAX(B:B)</f>
         <v>0.68055555555555558</v>
       </c>
       <c r="D197">
@@ -7317,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="J197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9262364771862124E-3</v>
       </c>
     </row>
@@ -7326,11 +7326,11 @@
         <v>985</v>
       </c>
       <c r="B198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>59100</v>
       </c>
       <c r="C198">
-        <f t="shared" si="12"/>
+        <f>B198/MAX(B:B)</f>
         <v>0.68402777777777779</v>
       </c>
       <c r="D198">
@@ -7352,7 +7352,7 @@
         <v>1</v>
       </c>
       <c r="J198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9273360346149697E-3</v>
       </c>
     </row>
@@ -7361,11 +7361,11 @@
         <v>990</v>
       </c>
       <c r="B199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>59400</v>
       </c>
       <c r="C199">
-        <f t="shared" si="12"/>
+        <f>B199/MAX(B:B)</f>
         <v>0.6875</v>
       </c>
       <c r="D199">
@@ -7387,7 +7387,7 @@
         <v>1</v>
       </c>
       <c r="J199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9141413454698921E-3</v>
       </c>
     </row>
@@ -7396,11 +7396,11 @@
         <v>995</v>
       </c>
       <c r="B200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>59700</v>
       </c>
       <c r="C200">
-        <f t="shared" si="12"/>
+        <f>B200/MAX(B:B)</f>
         <v>0.69097222222222221</v>
       </c>
       <c r="D200">
@@ -7422,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="J200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.8935639135888786E-3</v>
       </c>
     </row>
@@ -7431,11 +7431,11 @@
         <v>1000</v>
       </c>
       <c r="B201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>60000</v>
       </c>
       <c r="C201">
-        <f t="shared" si="12"/>
+        <f>B201/MAX(B:B)</f>
         <v>0.69444444444444442</v>
       </c>
       <c r="D201">
@@ -7457,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="J201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9117851509796997E-3</v>
       </c>
     </row>
@@ -7466,11 +7466,11 @@
         <v>1005</v>
       </c>
       <c r="B202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>60300</v>
       </c>
       <c r="C202">
-        <f t="shared" si="12"/>
+        <f>B202/MAX(B:B)</f>
         <v>0.69791666666666663</v>
       </c>
       <c r="D202">
@@ -7492,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="J202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.8973338247731866E-3</v>
       </c>
     </row>
@@ -7501,11 +7501,11 @@
         <v>1010</v>
       </c>
       <c r="B203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>60600</v>
       </c>
       <c r="C203">
-        <f t="shared" si="12"/>
+        <f>B203/MAX(B:B)</f>
         <v>0.70138888888888884</v>
       </c>
       <c r="D203">
@@ -7527,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="J203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.8880661264450969E-3</v>
       </c>
     </row>
@@ -7536,11 +7536,11 @@
         <v>1015</v>
       </c>
       <c r="B204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>60900</v>
       </c>
       <c r="C204">
-        <f t="shared" si="12"/>
+        <f>B204/MAX(B:B)</f>
         <v>0.70486111111111116</v>
       </c>
       <c r="D204">
@@ -7562,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="J204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9094289564895073E-3</v>
       </c>
     </row>
@@ -7571,11 +7571,11 @@
         <v>1020</v>
       </c>
       <c r="B205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>61200</v>
       </c>
       <c r="C205">
-        <f t="shared" si="12"/>
+        <f>B205/MAX(B:B)</f>
         <v>0.70833333333333337</v>
       </c>
       <c r="D205">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="J205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9144555047352508E-3</v>
       </c>
     </row>
@@ -7606,11 +7606,11 @@
         <v>1025</v>
       </c>
       <c r="B206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>61500</v>
       </c>
       <c r="C206">
-        <f t="shared" si="12"/>
+        <f>B206/MAX(B:B)</f>
         <v>0.71180555555555558</v>
       </c>
       <c r="D206">
@@ -7632,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="J206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9678625798462777E-3</v>
       </c>
     </row>
@@ -7641,11 +7641,11 @@
         <v>1030</v>
       </c>
       <c r="B207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>61800</v>
       </c>
       <c r="C207">
-        <f t="shared" si="12"/>
+        <f>B207/MAX(B:B)</f>
         <v>0.71527777777777779</v>
       </c>
       <c r="D207">
@@ -7667,7 +7667,7 @@
         <v>1</v>
       </c>
       <c r="J207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.9986501878514573E-3</v>
       </c>
     </row>
@@ -7676,11 +7676,11 @@
         <v>1035</v>
       </c>
       <c r="B208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>62100</v>
       </c>
       <c r="C208">
-        <f t="shared" si="12"/>
+        <f>B208/MAX(B:B)</f>
         <v>0.71875</v>
       </c>
       <c r="D208">
@@ -7702,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="J208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0054046120566755E-3</v>
       </c>
     </row>
@@ -7711,11 +7711,11 @@
         <v>1040</v>
       </c>
       <c r="B209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>62400</v>
       </c>
       <c r="C209">
-        <f t="shared" si="12"/>
+        <f>B209/MAX(B:B)</f>
         <v>0.72222222222222221</v>
       </c>
       <c r="D209">
@@ -7737,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="J209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.0391767330827653E-3</v>
       </c>
     </row>
@@ -7746,11 +7746,11 @@
         <v>1045</v>
       </c>
       <c r="B210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>62700</v>
       </c>
       <c r="C210">
-        <f t="shared" si="12"/>
+        <f>B210/MAX(B:B)</f>
         <v>0.72569444444444442</v>
       </c>
       <c r="D210">
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="J210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.1865174285361274E-3</v>
       </c>
     </row>
@@ -7781,11 +7781,11 @@
         <v>1050</v>
       </c>
       <c r="B211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>63000</v>
       </c>
       <c r="C211">
-        <f t="shared" si="12"/>
+        <f>B211/MAX(B:B)</f>
         <v>0.72916666666666663</v>
       </c>
       <c r="D211">
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="J211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.2807652081438209E-3</v>
       </c>
     </row>
@@ -7816,11 +7816,11 @@
         <v>1055</v>
       </c>
       <c r="B212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>63300</v>
       </c>
       <c r="C212">
-        <f t="shared" si="12"/>
+        <f>B212/MAX(B:B)</f>
         <v>0.73263888888888884</v>
       </c>
       <c r="D212">
@@ -7842,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="J212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.2999289233307189E-3</v>
       </c>
     </row>
@@ -7851,11 +7851,11 @@
         <v>1060</v>
       </c>
       <c r="B213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>63600</v>
       </c>
       <c r="C213">
-        <f t="shared" si="12"/>
+        <f>B213/MAX(B:B)</f>
         <v>0.73611111111111116</v>
       </c>
       <c r="D213">
@@ -7877,7 +7877,7 @@
         <v>1</v>
       </c>
       <c r="J213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.3413979463581037E-3</v>
       </c>
     </row>
@@ -7886,11 +7886,11 @@
         <v>1065</v>
       </c>
       <c r="B214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>63900</v>
       </c>
       <c r="C214">
-        <f t="shared" si="12"/>
+        <f>B214/MAX(B:B)</f>
         <v>0.73958333333333337</v>
       </c>
       <c r="D214">
@@ -7912,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="J214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.3834952879162072E-3</v>
       </c>
     </row>
@@ -7921,11 +7921,11 @@
         <v>1070</v>
       </c>
       <c r="B215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>64200</v>
       </c>
       <c r="C215">
-        <f t="shared" si="12"/>
+        <f>B215/MAX(B:B)</f>
         <v>0.74305555555555558</v>
       </c>
       <c r="D215">
@@ -7947,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="J215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.4213514793919641E-3</v>
       </c>
     </row>
@@ -7956,11 +7956,11 @@
         <v>1075</v>
       </c>
       <c r="B216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>64500</v>
       </c>
       <c r="C216">
-        <f t="shared" si="12"/>
+        <f>B216/MAX(B:B)</f>
         <v>0.74652777777777779</v>
       </c>
       <c r="D216">
@@ -7982,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="J216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.4530815651932214E-3</v>
       </c>
     </row>
@@ -7991,11 +7991,11 @@
         <v>1080</v>
       </c>
       <c r="B217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>64800</v>
       </c>
       <c r="C217">
-        <f t="shared" si="12"/>
+        <f>B217/MAX(B:B)</f>
         <v>0.75</v>
       </c>
       <c r="D217">
@@ -8017,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="J217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.4783713860546189E-3</v>
       </c>
     </row>
@@ -8026,11 +8026,11 @@
         <v>1085</v>
       </c>
       <c r="B218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>65100</v>
       </c>
       <c r="C218">
-        <f t="shared" si="12"/>
+        <f>B218/MAX(B:B)</f>
         <v>0.75347222222222221</v>
       </c>
       <c r="D218">
@@ -8052,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="J218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.504132445814055E-3</v>
       </c>
     </row>
@@ -8061,11 +8061,11 @@
         <v>1090</v>
       </c>
       <c r="B219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>65400</v>
       </c>
       <c r="C219">
-        <f t="shared" si="12"/>
+        <f>B219/MAX(B:B)</f>
         <v>0.75694444444444442</v>
       </c>
       <c r="D219">
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="J219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5217253646741579E-3</v>
       </c>
     </row>
@@ -8096,11 +8096,11 @@
         <v>1095</v>
       </c>
       <c r="B220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>65700</v>
       </c>
       <c r="C220">
-        <f t="shared" si="12"/>
+        <f>B220/MAX(B:B)</f>
         <v>0.76041666666666663</v>
       </c>
       <c r="D220">
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5383758057381839E-3</v>
       </c>
     </row>
@@ -8131,11 +8131,11 @@
         <v>1100</v>
       </c>
       <c r="B221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>66000</v>
       </c>
       <c r="C221">
-        <f t="shared" si="12"/>
+        <f>B221/MAX(B:B)</f>
         <v>0.76388888888888884</v>
       </c>
       <c r="D221">
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="J221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5600527950479534E-3</v>
       </c>
     </row>
@@ -8166,11 +8166,11 @@
         <v>1105</v>
       </c>
       <c r="B222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>66300</v>
       </c>
       <c r="C222">
-        <f t="shared" si="12"/>
+        <f>B222/MAX(B:B)</f>
         <v>0.76736111111111116</v>
       </c>
       <c r="D222">
@@ -8192,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="J222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5704200508048E-3</v>
       </c>
     </row>
@@ -8201,11 +8201,11 @@
         <v>1110</v>
       </c>
       <c r="B223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>66600</v>
       </c>
       <c r="C223">
-        <f t="shared" si="12"/>
+        <f>B223/MAX(B:B)</f>
         <v>0.77083333333333337</v>
       </c>
       <c r="D223">
@@ -8227,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="J223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5839288992152358E-3</v>
       </c>
     </row>
@@ -8236,11 +8236,11 @@
         <v>1115</v>
       </c>
       <c r="B224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>66900</v>
       </c>
       <c r="C224">
-        <f t="shared" si="12"/>
+        <f>B224/MAX(B:B)</f>
         <v>0.77430555555555558</v>
       </c>
       <c r="D224">
@@ -8262,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="J224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.6231988073851086E-3</v>
       </c>
     </row>
@@ -8271,11 +8271,11 @@
         <v>1120</v>
       </c>
       <c r="B225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>67200</v>
       </c>
       <c r="C225">
-        <f t="shared" si="12"/>
+        <f>B225/MAX(B:B)</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="D225">
@@ -8297,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="J225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5521988134139789E-3</v>
       </c>
     </row>
@@ -8306,11 +8306,11 @@
         <v>1125</v>
       </c>
       <c r="B226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>67500</v>
       </c>
       <c r="C226">
-        <f t="shared" si="12"/>
+        <f>B226/MAX(B:B)</f>
         <v>0.78125</v>
       </c>
       <c r="D226">
@@ -8332,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="J226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5784311120714537E-3</v>
       </c>
     </row>
@@ -8341,11 +8341,11 @@
         <v>1130</v>
       </c>
       <c r="B227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>67800</v>
       </c>
       <c r="C227">
-        <f t="shared" si="12"/>
+        <f>B227/MAX(B:B)</f>
         <v>0.78472222222222221</v>
       </c>
       <c r="D227">
@@ -8367,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="J227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.6043492514635698E-3</v>
       </c>
     </row>
@@ -8376,11 +8376,11 @@
         <v>1135</v>
       </c>
       <c r="B228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>68100</v>
       </c>
       <c r="C228">
-        <f t="shared" si="12"/>
+        <f>B228/MAX(B:B)</f>
         <v>0.78819444444444442</v>
       </c>
       <c r="D228">
@@ -8402,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="J228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.610004118240031E-3</v>
       </c>
     </row>
@@ -8411,11 +8411,11 @@
         <v>1140</v>
       </c>
       <c r="B229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>68400</v>
       </c>
       <c r="C229">
-        <f t="shared" si="12"/>
+        <f>B229/MAX(B:B)</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="D229">
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="J229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.595866951298877E-3</v>
       </c>
     </row>
@@ -8446,11 +8446,11 @@
         <v>1145</v>
       </c>
       <c r="B230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>68700</v>
       </c>
       <c r="C230">
-        <f t="shared" si="12"/>
+        <f>B230/MAX(B:B)</f>
         <v>0.79513888888888884</v>
       </c>
       <c r="D230">
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="J230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.6070196052191209E-3</v>
       </c>
     </row>
@@ -8481,11 +8481,11 @@
         <v>1150</v>
       </c>
       <c r="B231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>69000</v>
       </c>
       <c r="C231">
-        <f t="shared" si="12"/>
+        <f>B231/MAX(B:B)</f>
         <v>0.79861111111111116</v>
       </c>
       <c r="D231">
@@ -8507,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="J231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5862850937054282E-3</v>
       </c>
     </row>
@@ -8516,11 +8516,11 @@
         <v>1155</v>
       </c>
       <c r="B232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>69300</v>
       </c>
       <c r="C232">
-        <f t="shared" si="12"/>
+        <f>B232/MAX(B:B)</f>
         <v>0.80208333333333337</v>
       </c>
       <c r="D232">
@@ -8542,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="J232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5842430584805949E-3</v>
       </c>
     </row>
@@ -8551,11 +8551,11 @@
         <v>1160</v>
       </c>
       <c r="B233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>69600</v>
       </c>
       <c r="C233">
-        <f t="shared" si="12"/>
+        <f>B233/MAX(B:B)</f>
         <v>0.80555555555555558</v>
       </c>
       <c r="D233">
@@ -8577,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="J233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5677496970492485E-3</v>
       </c>
     </row>
@@ -8586,11 +8586,11 @@
         <v>1165</v>
       </c>
       <c r="B234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>69900</v>
       </c>
       <c r="C234">
-        <f t="shared" si="12"/>
+        <f>B234/MAX(B:B)</f>
         <v>0.80902777777777779</v>
       </c>
       <c r="D234">
@@ -8612,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="J234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5669642988858511E-3</v>
       </c>
     </row>
@@ -8621,11 +8621,11 @@
         <v>1170</v>
       </c>
       <c r="B235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>70200</v>
       </c>
       <c r="C235">
-        <f t="shared" si="12"/>
+        <f>B235/MAX(B:B)</f>
         <v>0.8125</v>
       </c>
       <c r="D235">
@@ -8647,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="J235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5619377506401072E-3</v>
       </c>
     </row>
@@ -8656,11 +8656,11 @@
         <v>1175</v>
       </c>
       <c r="B236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>70500</v>
       </c>
       <c r="C236">
-        <f t="shared" si="12"/>
+        <f>B236/MAX(B:B)</f>
         <v>0.81597222222222221</v>
       </c>
       <c r="D236">
@@ -8682,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="J236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5507850967198638E-3</v>
       </c>
     </row>
@@ -8691,11 +8691,11 @@
         <v>1180</v>
       </c>
       <c r="B237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>70800</v>
       </c>
       <c r="C237">
-        <f t="shared" si="12"/>
+        <f>B237/MAX(B:B)</f>
         <v>0.81944444444444442</v>
       </c>
       <c r="D237">
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="J237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5231390813682734E-3</v>
       </c>
     </row>
@@ -8726,11 +8726,11 @@
         <v>1185</v>
       </c>
       <c r="B238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>71100</v>
       </c>
       <c r="C238">
-        <f t="shared" si="12"/>
+        <f>B238/MAX(B:B)</f>
         <v>0.82291666666666663</v>
       </c>
       <c r="D238">
@@ -8752,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="J238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5207828868780806E-3</v>
       </c>
     </row>
@@ -8761,11 +8761,11 @@
         <v>1190</v>
       </c>
       <c r="B239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>71400</v>
       </c>
       <c r="C239">
-        <f t="shared" si="12"/>
+        <f>B239/MAX(B:B)</f>
         <v>0.82638888888888884</v>
       </c>
       <c r="D239">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="J239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5430881947185688E-3</v>
       </c>
     </row>
@@ -8796,11 +8796,11 @@
         <v>1195</v>
       </c>
       <c r="B240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>71700</v>
       </c>
       <c r="C240">
-        <f t="shared" si="12"/>
+        <f>B240/MAX(B:B)</f>
         <v>0.82986111111111116</v>
       </c>
       <c r="D240">
@@ -8822,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="J240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5565970431290046E-3</v>
       </c>
     </row>
@@ -8831,11 +8831,11 @@
         <v>1200</v>
       </c>
       <c r="B241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>72000</v>
       </c>
       <c r="C241">
-        <f t="shared" si="12"/>
+        <f>B241/MAX(B:B)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D241">
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="J241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5501567781891456E-3</v>
       </c>
     </row>
@@ -8866,11 +8866,11 @@
         <v>1205</v>
       </c>
       <c r="B242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>72300</v>
       </c>
       <c r="C242">
-        <f t="shared" si="12"/>
+        <f>B242/MAX(B:B)</f>
         <v>0.83680555555555558</v>
       </c>
       <c r="D242">
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="J242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5484289022296714E-3</v>
       </c>
     </row>
@@ -8901,11 +8901,11 @@
         <v>1210</v>
       </c>
       <c r="B243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>72600</v>
       </c>
       <c r="C243">
-        <f t="shared" si="12"/>
+        <f>B243/MAX(B:B)</f>
         <v>0.84027777777777779</v>
       </c>
       <c r="D243">
@@ -8927,7 +8927,7 @@
         <v>1</v>
       </c>
       <c r="J243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5790594306021714E-3</v>
       </c>
     </row>
@@ -8936,11 +8936,11 @@
         <v>1215</v>
       </c>
       <c r="B244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>72900</v>
       </c>
       <c r="C244">
-        <f t="shared" si="12"/>
+        <f>B244/MAX(B:B)</f>
         <v>0.84375</v>
       </c>
       <c r="D244">
@@ -8962,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="J244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.6010505791773E-3</v>
       </c>
     </row>
@@ -8971,11 +8971,11 @@
         <v>1220</v>
       </c>
       <c r="B245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>73200</v>
       </c>
       <c r="C245">
-        <f t="shared" si="12"/>
+        <f>B245/MAX(B:B)</f>
         <v>0.84722222222222221</v>
       </c>
       <c r="D245">
@@ -8997,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="J245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5778027935407359E-3</v>
       </c>
     </row>
@@ -9006,11 +9006,11 @@
         <v>1225</v>
       </c>
       <c r="B246">
-        <f t="shared" ref="B246:B289" si="13">A246*60</f>
+        <f t="shared" ref="B246:B289" si="9">A246*60</f>
         <v>73500</v>
       </c>
       <c r="C246">
-        <f t="shared" si="12"/>
+        <f>B246/MAX(B:B)</f>
         <v>0.85069444444444442</v>
       </c>
       <c r="D246">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="J246">
-        <f t="shared" ref="J246:J289" si="14">1*PI()*H246^4*D246/2/G246</f>
+        <f t="shared" ref="J246:J289" si="10">1*PI()*H246^4*D246/2/G246</f>
         <v>3.5586390783538383E-3</v>
       </c>
     </row>
@@ -9041,11 +9041,11 @@
         <v>1230</v>
       </c>
       <c r="B247">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>73800</v>
       </c>
       <c r="C247">
-        <f t="shared" si="12"/>
+        <f>B247/MAX(B:B)</f>
         <v>0.85416666666666663</v>
       </c>
       <c r="D247">
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="J247">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.5858138548073896E-3</v>
       </c>
     </row>
@@ -9076,11 +9076,11 @@
         <v>1235</v>
       </c>
       <c r="B248">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>74100</v>
       </c>
       <c r="C248">
-        <f t="shared" si="12"/>
+        <f>B248/MAX(B:B)</f>
         <v>0.85763888888888884</v>
       </c>
       <c r="D248">
@@ -9102,7 +9102,7 @@
         <v>1</v>
       </c>
       <c r="J248">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.5672784581512098E-3</v>
       </c>
     </row>
@@ -9111,11 +9111,11 @@
         <v>1240</v>
       </c>
       <c r="B249">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>74400</v>
       </c>
       <c r="C249">
-        <f t="shared" si="12"/>
+        <f>B249/MAX(B:B)</f>
         <v>0.86111111111111116</v>
       </c>
       <c r="D249">
@@ -9137,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="J249">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.5894266863590175E-3</v>
       </c>
     </row>
@@ -9146,11 +9146,11 @@
         <v>1245</v>
       </c>
       <c r="B250">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>74700</v>
       </c>
       <c r="C250">
-        <f t="shared" si="12"/>
+        <f>B250/MAX(B:B)</f>
         <v>0.86458333333333337</v>
       </c>
       <c r="D250">
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J250">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.6059200477903644E-3</v>
       </c>
     </row>
@@ -9181,11 +9181,11 @@
         <v>1250</v>
       </c>
       <c r="B251">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>75000</v>
       </c>
       <c r="C251">
-        <f t="shared" si="12"/>
+        <f>B251/MAX(B:B)</f>
         <v>0.86805555555555558</v>
       </c>
       <c r="D251">
@@ -9207,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="J251">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.6027784551367751E-3</v>
       </c>
     </row>
@@ -9216,11 +9216,11 @@
         <v>1255</v>
       </c>
       <c r="B252">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>75300</v>
       </c>
       <c r="C252">
-        <f t="shared" si="12"/>
+        <f>B252/MAX(B:B)</f>
         <v>0.87152777777777779</v>
       </c>
       <c r="D252">
@@ -9242,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="J252">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.5723050063969533E-3</v>
       </c>
     </row>
@@ -9251,11 +9251,11 @@
         <v>1260</v>
       </c>
       <c r="B253">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>75600</v>
       </c>
       <c r="C253">
-        <f t="shared" si="12"/>
+        <f>B253/MAX(B:B)</f>
         <v>0.875</v>
       </c>
       <c r="D253">
@@ -9277,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="J253">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.603563853300172E-3</v>
       </c>
     </row>
@@ -9286,11 +9286,11 @@
         <v>1265</v>
       </c>
       <c r="B254">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>75900</v>
       </c>
       <c r="C254">
-        <f t="shared" si="12"/>
+        <f>B254/MAX(B:B)</f>
         <v>0.87847222222222221</v>
       </c>
       <c r="D254">
@@ -9312,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="J254">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.5908404030531331E-3</v>
       </c>
     </row>
@@ -9321,11 +9321,11 @@
         <v>1270</v>
       </c>
       <c r="B255">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>76200</v>
       </c>
       <c r="C255">
-        <f t="shared" si="12"/>
+        <f>B255/MAX(B:B)</f>
         <v>0.88194444444444442</v>
       </c>
       <c r="D255">
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="J255">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.5157563386323371E-3</v>
       </c>
     </row>
@@ -9356,11 +9356,11 @@
         <v>1275</v>
       </c>
       <c r="B256">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>76500</v>
       </c>
       <c r="C256">
-        <f t="shared" si="12"/>
+        <f>B256/MAX(B:B)</f>
         <v>0.88541666666666663</v>
       </c>
       <c r="D256">
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="J256">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.5341346556558378E-3</v>
       </c>
     </row>
@@ -9391,11 +9391,11 @@
         <v>1280</v>
       </c>
       <c r="B257">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>76800</v>
       </c>
       <c r="C257">
-        <f t="shared" si="12"/>
+        <f>B257/MAX(B:B)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="D257">
@@ -9417,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="J257">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.5042895254467346E-3</v>
       </c>
     </row>
@@ -9426,11 +9426,11 @@
         <v>1285</v>
       </c>
       <c r="B258">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>77100</v>
       </c>
       <c r="C258">
-        <f t="shared" si="12"/>
+        <f>B258/MAX(B:B)</f>
         <v>0.89236111111111116</v>
       </c>
       <c r="D258">
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="J258">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.569163413743364E-3</v>
       </c>
     </row>
@@ -9461,11 +9461,11 @@
         <v>1290</v>
       </c>
       <c r="B259">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>77400</v>
       </c>
       <c r="C259">
-        <f t="shared" ref="C259:C289" si="15">B259/MAX(B:B)</f>
+        <f>B259/MAX(B:B)</f>
         <v>0.89583333333333337</v>
       </c>
       <c r="D259">
@@ -9487,7 +9487,7 @@
         <v>1</v>
       </c>
       <c r="J259">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.599951021748544E-3</v>
       </c>
     </row>
@@ -9496,11 +9496,11 @@
         <v>1295</v>
       </c>
       <c r="B260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>77700</v>
       </c>
       <c r="C260">
-        <f t="shared" si="15"/>
+        <f>B260/MAX(B:B)</f>
         <v>0.89930555555555558</v>
       </c>
       <c r="D260">
@@ -9522,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="J260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.6618403970242628E-3</v>
       </c>
     </row>
@@ -9531,11 +9531,11 @@
         <v>1300</v>
       </c>
       <c r="B261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>78000</v>
       </c>
       <c r="C261">
-        <f t="shared" si="15"/>
+        <f>B261/MAX(B:B)</f>
         <v>0.90277777777777779</v>
       </c>
       <c r="D261">
@@ -9557,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="J261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.6638824322490961E-3</v>
       </c>
     </row>
@@ -9566,11 +9566,11 @@
         <v>1305</v>
       </c>
       <c r="B262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>78300</v>
       </c>
       <c r="C262">
-        <f t="shared" si="15"/>
+        <f>B262/MAX(B:B)</f>
         <v>0.90625</v>
       </c>
       <c r="D262">
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="J262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.6833603067013528E-3</v>
       </c>
     </row>
@@ -9601,11 +9601,11 @@
         <v>1310</v>
       </c>
       <c r="B263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>78600</v>
       </c>
       <c r="C263">
-        <f t="shared" si="15"/>
+        <f>B263/MAX(B:B)</f>
         <v>0.90972222222222221</v>
       </c>
       <c r="D263">
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="J263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.6910572087026474E-3</v>
       </c>
     </row>
@@ -9636,11 +9636,11 @@
         <v>1315</v>
       </c>
       <c r="B264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>78900</v>
       </c>
       <c r="C264">
-        <f t="shared" si="15"/>
+        <f>B264/MAX(B:B)</f>
         <v>0.91319444444444442</v>
       </c>
       <c r="D264">
@@ -9662,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="J264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.6949841995196349E-3</v>
       </c>
     </row>
@@ -9671,11 +9671,11 @@
         <v>1320</v>
       </c>
       <c r="B265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>79200</v>
       </c>
       <c r="C265">
-        <f t="shared" si="15"/>
+        <f>B265/MAX(B:B)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="D265">
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="J265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.694041721723558E-3</v>
       </c>
     </row>
@@ -9706,11 +9706,11 @@
         <v>1325</v>
       </c>
       <c r="B266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>79500</v>
       </c>
       <c r="C266">
-        <f t="shared" si="15"/>
+        <f>B266/MAX(B:B)</f>
         <v>0.92013888888888884</v>
       </c>
       <c r="D266">
@@ -9732,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="J266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.7259288871574945E-3</v>
       </c>
     </row>
@@ -9741,11 +9741,11 @@
         <v>1330</v>
       </c>
       <c r="B267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>79800</v>
       </c>
       <c r="C267">
-        <f t="shared" si="15"/>
+        <f>B267/MAX(B:B)</f>
         <v>0.92361111111111116</v>
       </c>
       <c r="D267">
@@ -9767,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="J267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.7689687065116748E-3</v>
       </c>
     </row>
@@ -9776,11 +9776,11 @@
         <v>1335</v>
       </c>
       <c r="B268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>80100</v>
       </c>
       <c r="C268">
-        <f t="shared" si="15"/>
+        <f>B268/MAX(B:B)</f>
         <v>0.92708333333333337</v>
       </c>
       <c r="D268">
@@ -9802,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="J268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.8236324186841373E-3</v>
       </c>
     </row>
@@ -9811,11 +9811,11 @@
         <v>1340</v>
       </c>
       <c r="B269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>80400</v>
       </c>
       <c r="C269">
-        <f t="shared" si="15"/>
+        <f>B269/MAX(B:B)</f>
         <v>0.93055555555555558</v>
       </c>
       <c r="D269">
@@ -9837,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="J269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.861174450894535E-3</v>
       </c>
     </row>
@@ -9846,11 +9846,11 @@
         <v>1345</v>
       </c>
       <c r="B270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>80700</v>
       </c>
       <c r="C270">
-        <f t="shared" si="15"/>
+        <f>B270/MAX(B:B)</f>
         <v>0.93402777777777779</v>
       </c>
       <c r="D270">
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="J270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.8911766607363178E-3</v>
       </c>
     </row>
@@ -9881,11 +9881,11 @@
         <v>1350</v>
       </c>
       <c r="B271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>81000</v>
       </c>
       <c r="C271">
-        <f t="shared" si="15"/>
+        <f>B271/MAX(B:B)</f>
         <v>0.9375</v>
       </c>
       <c r="D271">
@@ -9907,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="J271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.922592587272216E-3</v>
       </c>
     </row>
@@ -9916,11 +9916,11 @@
         <v>1355</v>
       </c>
       <c r="B272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>81300</v>
       </c>
       <c r="C272">
-        <f t="shared" si="15"/>
+        <f>B272/MAX(B:B)</f>
         <v>0.94097222222222221</v>
       </c>
       <c r="D272">
@@ -9942,7 +9942,7 @@
         <v>1</v>
       </c>
       <c r="J272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.9310748874369075E-3</v>
       </c>
     </row>
@@ -9951,11 +9951,11 @@
         <v>1360</v>
       </c>
       <c r="B273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>81600</v>
       </c>
       <c r="C273">
-        <f t="shared" si="15"/>
+        <f>B273/MAX(B:B)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="D273">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="J273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.9544797527061521E-3</v>
       </c>
     </row>
@@ -9986,11 +9986,11 @@
         <v>1365</v>
       </c>
       <c r="B274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>81900</v>
       </c>
       <c r="C274">
-        <f t="shared" si="15"/>
+        <f>B274/MAX(B:B)</f>
         <v>0.94791666666666663</v>
       </c>
       <c r="D274">
@@ -10012,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="J274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.9665748844224732E-3</v>
       </c>
     </row>
@@ -10021,11 +10021,11 @@
         <v>1370</v>
       </c>
       <c r="B275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>82200</v>
       </c>
       <c r="C275">
-        <f t="shared" si="15"/>
+        <f>B275/MAX(B:B)</f>
         <v>0.95138888888888884</v>
       </c>
       <c r="D275">
@@ -10047,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="J275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.9604487787479725E-3</v>
       </c>
     </row>
@@ -10056,11 +10056,11 @@
         <v>1375</v>
       </c>
       <c r="B276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>82500</v>
       </c>
       <c r="C276">
-        <f t="shared" si="15"/>
+        <f>B276/MAX(B:B)</f>
         <v>0.95486111111111116</v>
       </c>
       <c r="D276">
@@ -10082,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="J276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.969559397443383E-3</v>
       </c>
     </row>
@@ -10091,11 +10091,11 @@
         <v>1380</v>
       </c>
       <c r="B277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>82800</v>
       </c>
       <c r="C277">
-        <f t="shared" si="15"/>
+        <f>B277/MAX(B:B)</f>
         <v>0.95833333333333337</v>
       </c>
       <c r="D277">
@@ -10117,7 +10117,7 @@
         <v>1</v>
       </c>
       <c r="J277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.9841678032825753E-3</v>
       </c>
     </row>
@@ -10126,11 +10126,11 @@
         <v>1385</v>
       </c>
       <c r="B278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>83100</v>
       </c>
       <c r="C278">
-        <f t="shared" si="15"/>
+        <f>B278/MAX(B:B)</f>
         <v>0.96180555555555558</v>
       </c>
       <c r="D278">
@@ -10152,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="J278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.005373553694307E-3</v>
       </c>
     </row>
@@ -10161,11 +10161,11 @@
         <v>1390</v>
       </c>
       <c r="B279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>83400</v>
       </c>
       <c r="C279">
-        <f t="shared" si="15"/>
+        <f>B279/MAX(B:B)</f>
         <v>0.96527777777777779</v>
       </c>
       <c r="D279">
@@ -10187,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="J279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.0198248799008197E-3</v>
       </c>
     </row>
@@ -10196,11 +10196,11 @@
         <v>1395</v>
       </c>
       <c r="B280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>83700</v>
       </c>
       <c r="C280">
-        <f t="shared" si="15"/>
+        <f>B280/MAX(B:B)</f>
         <v>0.96875</v>
       </c>
       <c r="D280">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="J280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.0448005414968581E-3</v>
       </c>
     </row>
@@ -10231,11 +10231,11 @@
         <v>1400</v>
       </c>
       <c r="B281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>84000</v>
       </c>
       <c r="C281">
-        <f t="shared" si="15"/>
+        <f>B281/MAX(B:B)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="D281">
@@ -10257,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="J281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.0853270867281669E-3</v>
       </c>
     </row>
@@ -10266,11 +10266,11 @@
         <v>1405</v>
       </c>
       <c r="B282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>84300</v>
       </c>
       <c r="C282">
-        <f t="shared" si="15"/>
+        <f>B282/MAX(B:B)</f>
         <v>0.97569444444444442</v>
       </c>
       <c r="D282">
@@ -10292,7 +10292,7 @@
         <v>1</v>
       </c>
       <c r="J282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.1126589428143985E-3</v>
       </c>
     </row>
@@ -10301,11 +10301,11 @@
         <v>1410</v>
       </c>
       <c r="B283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>84600</v>
       </c>
       <c r="C283">
-        <f t="shared" si="15"/>
+        <f>B283/MAX(B:B)</f>
         <v>0.97916666666666663</v>
       </c>
       <c r="D283">
@@ -10327,7 +10327,7 @@
         <v>1</v>
       </c>
       <c r="J283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.1321368172666552E-3</v>
       </c>
     </row>
@@ -10336,11 +10336,11 @@
         <v>1415</v>
       </c>
       <c r="B284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>84900</v>
       </c>
       <c r="C284">
-        <f t="shared" si="15"/>
+        <f>B284/MAX(B:B)</f>
         <v>0.98263888888888884</v>
       </c>
       <c r="D284">
@@ -10362,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="J284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.1385770822065142E-3</v>
       </c>
     </row>
@@ -10371,11 +10371,11 @@
         <v>1420</v>
       </c>
       <c r="B285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>85200</v>
       </c>
       <c r="C285">
-        <f t="shared" si="15"/>
+        <f>B285/MAX(B:B)</f>
         <v>0.98611111111111116</v>
       </c>
       <c r="D285">
@@ -10397,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="J285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.1544421251071429E-3</v>
       </c>
     </row>
@@ -10406,11 +10406,11 @@
         <v>1425</v>
       </c>
       <c r="B286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>85500</v>
       </c>
       <c r="C286">
-        <f t="shared" si="15"/>
+        <f>B286/MAX(B:B)</f>
         <v>0.98958333333333337</v>
       </c>
       <c r="D286">
@@ -10432,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="J286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.1618248678430784E-3</v>
       </c>
     </row>
@@ -10441,11 +10441,11 @@
         <v>1430</v>
       </c>
       <c r="B287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>85800</v>
       </c>
       <c r="C287">
-        <f t="shared" si="15"/>
+        <f>B287/MAX(B:B)</f>
         <v>0.99305555555555558</v>
       </c>
       <c r="D287">
@@ -10467,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="J287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.1717208847018867E-3</v>
       </c>
     </row>
@@ -10476,11 +10476,11 @@
         <v>1435</v>
       </c>
       <c r="B288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>86100</v>
       </c>
       <c r="C288">
-        <f t="shared" si="15"/>
+        <f>B288/MAX(B:B)</f>
         <v>0.99652777777777779</v>
       </c>
       <c r="D288">
@@ -10502,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="J288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.1772186718456684E-3</v>
       </c>
     </row>
@@ -10511,11 +10511,11 @@
         <v>1440</v>
       </c>
       <c r="B289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>86400</v>
       </c>
       <c r="C289">
-        <f t="shared" si="15"/>
+        <f>B289/MAX(B:B)</f>
         <v>1</v>
       </c>
       <c r="D289">
@@ -10537,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="J289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>4.1679509735175783E-3</v>
       </c>
     </row>
@@ -10547,6 +10547,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4BC992AB83A1548A1B8B5F18677A95F" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="42d56c5c72d44ab02267f72c956364d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5209e521-73e0-41cd-a274-87675e0c834f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc2d2b1e76373b9f1cfbfa45a89f8b75" ns3:_="">
     <xsd:import namespace="5209e521-73e0-41cd-a274-87675e0c834f"/>
@@ -10698,22 +10713,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3245B62-6A4A-4085-A048-2914D4991859}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD2A945-33F7-4B91-A907-FB7E3866763A}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0A6231-B768-4D05-9C78-571F4C36A483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10729,18 +10743,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CD2A945-33F7-4B91-A907-FB7E3866763A}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3245B62-6A4A-4085-A048-2914D4991859}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>